--- a/ui-testsuite/src/main/resources/TestData/ATR_Valid_AMS_CheckMatchRegionFields.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Valid_AMS_CheckMatchRegionFields.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="549">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -1687,6 +1687,24 @@
   </si>
   <si>
     <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Quoted</t>
+  </si>
+  <si>
+    <t>Not Quoted</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1870,6 +1888,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2155,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2205,6 +2229,7 @@
     <col min="81" max="81" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2224,6 +2249,7 @@
     <col min="108" max="108" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="11.85546875" customWidth="1"/>
     <col min="110" max="110" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="13.42578125" customWidth="1"/>
@@ -2903,6 +2929,9 @@
         <v>164</v>
       </c>
       <c r="BS2" s="16"/>
+      <c r="BT2" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU2" s="20"/>
       <c r="BV2">
         <v>8</v>
@@ -2938,6 +2967,9 @@
         <v>246</v>
       </c>
       <c r="CG2" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH2" t="s">
         <v>246</v>
       </c>
       <c r="CI2" t="s">
@@ -2966,19 +2998,42 @@
       <c r="DA2" s="15"/>
       <c r="DB2" s="15"/>
       <c r="DC2" s="15"/>
-      <c r="DD2" s="16"/>
-      <c r="DE2" s="16"/>
-      <c r="DF2" s="15"/>
+      <c r="DD2" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE2" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF2" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG2" s="18"/>
       <c r="DH2" s="18"/>
       <c r="DI2" s="15"/>
       <c r="DJ2" s="15"/>
-      <c r="DK2" s="15"/>
+      <c r="DK2" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL2" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM2" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN2" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP2" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ2" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS2" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU2" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH2" s="19"/>
       <c r="EW2" s="16"/>
@@ -3160,6 +3215,9 @@
         <v>164</v>
       </c>
       <c r="BS3" s="16"/>
+      <c r="BT3" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU3" s="20"/>
       <c r="BV3">
         <v>8</v>
@@ -3195,6 +3253,9 @@
         <v>246</v>
       </c>
       <c r="CG3" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH3" t="s">
         <v>246</v>
       </c>
       <c r="CI3" t="s">
@@ -3223,19 +3284,42 @@
       <c r="DA3" s="15"/>
       <c r="DB3" s="15"/>
       <c r="DC3" s="15"/>
-      <c r="DD3" s="16"/>
-      <c r="DE3" s="16"/>
-      <c r="DF3" s="15"/>
+      <c r="DD3" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE3" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF3" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG3" s="18"/>
       <c r="DH3" s="18"/>
       <c r="DI3" s="15"/>
       <c r="DJ3" s="15"/>
-      <c r="DK3" s="15"/>
+      <c r="DK3" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL3" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM3" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN3" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP3" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ3" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS3" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU3" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH3" s="19"/>
       <c r="EW3" s="16"/>
@@ -3415,6 +3499,9 @@
         <v>164</v>
       </c>
       <c r="BS4" s="16"/>
+      <c r="BT4" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU4" s="20"/>
       <c r="BV4">
         <v>10</v>
@@ -3450,6 +3537,9 @@
         <v>246</v>
       </c>
       <c r="CG4" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH4" t="s">
         <v>246</v>
       </c>
       <c r="CI4" t="s">
@@ -3478,19 +3568,42 @@
       <c r="DA4" s="15"/>
       <c r="DB4" s="15"/>
       <c r="DC4" s="15"/>
-      <c r="DD4" s="16"/>
-      <c r="DE4" s="16"/>
-      <c r="DF4" s="15"/>
+      <c r="DD4" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE4" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF4" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG4" s="18"/>
       <c r="DH4" s="18"/>
       <c r="DI4" s="15"/>
       <c r="DJ4" s="15"/>
-      <c r="DK4" s="15"/>
+      <c r="DK4" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL4" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM4" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN4" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP4" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ4" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS4" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU4" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH4" s="19"/>
       <c r="EW4" s="16"/>
@@ -3672,6 +3785,9 @@
         <v>164</v>
       </c>
       <c r="BS5" s="16"/>
+      <c r="BT5" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU5" s="20"/>
       <c r="BV5">
         <v>9</v>
@@ -3707,6 +3823,9 @@
         <v>246</v>
       </c>
       <c r="CG5" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH5" t="s">
         <v>246</v>
       </c>
       <c r="CI5" t="s">
@@ -3735,19 +3854,42 @@
       <c r="DA5" s="15"/>
       <c r="DB5" s="15"/>
       <c r="DC5" s="15"/>
-      <c r="DD5" s="16"/>
-      <c r="DE5" s="16"/>
-      <c r="DF5" s="15"/>
+      <c r="DD5" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE5" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF5" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG5" s="18"/>
       <c r="DH5" s="18"/>
       <c r="DI5" s="15"/>
       <c r="DJ5" s="15"/>
-      <c r="DK5" s="15"/>
+      <c r="DK5" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL5" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM5" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN5" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP5" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ5" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS5" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU5" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH5" s="19"/>
       <c r="EW5" s="16"/>
@@ -3927,6 +4069,9 @@
         <v>164</v>
       </c>
       <c r="BS6" s="16"/>
+      <c r="BT6" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU6" s="20"/>
       <c r="BV6">
         <v>8</v>
@@ -3962,6 +4107,9 @@
         <v>246</v>
       </c>
       <c r="CG6" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH6" t="s">
         <v>246</v>
       </c>
       <c r="CI6" t="s">
@@ -3990,19 +4138,42 @@
       <c r="DA6" s="15"/>
       <c r="DB6" s="15"/>
       <c r="DC6" s="15"/>
-      <c r="DD6" s="16"/>
-      <c r="DE6" s="16"/>
-      <c r="DF6" s="15"/>
+      <c r="DD6" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE6" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF6" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG6" s="18"/>
       <c r="DH6" s="18"/>
       <c r="DI6" s="15"/>
       <c r="DJ6" s="15"/>
-      <c r="DK6" s="15"/>
+      <c r="DK6" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL6" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM6" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN6" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP6" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ6" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS6" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU6" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH6" s="19"/>
       <c r="EW6" s="16"/>
@@ -4182,6 +4353,9 @@
         <v>164</v>
       </c>
       <c r="BS7" s="16"/>
+      <c r="BT7" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU7" s="20"/>
       <c r="BV7">
         <v>8</v>
@@ -4217,6 +4391,9 @@
         <v>246</v>
       </c>
       <c r="CG7" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH7" t="s">
         <v>246</v>
       </c>
       <c r="CI7" t="s">
@@ -4245,19 +4422,42 @@
       <c r="DA7" s="15"/>
       <c r="DB7" s="15"/>
       <c r="DC7" s="15"/>
-      <c r="DD7" s="16"/>
-      <c r="DE7" s="16"/>
-      <c r="DF7" s="15"/>
+      <c r="DD7" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE7" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF7" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG7" s="18"/>
       <c r="DH7" s="18"/>
       <c r="DI7" s="15"/>
       <c r="DJ7" s="15"/>
-      <c r="DK7" s="15"/>
+      <c r="DK7" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL7" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM7" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN7" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP7" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ7" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS7" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU7" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH7" s="19"/>
       <c r="EW7" s="16"/>
@@ -4439,6 +4639,9 @@
         <v>164</v>
       </c>
       <c r="BS8" s="16"/>
+      <c r="BT8" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU8" s="20"/>
       <c r="BV8">
         <v>9</v>
@@ -4474,6 +4677,9 @@
         <v>246</v>
       </c>
       <c r="CG8" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH8" t="s">
         <v>246</v>
       </c>
       <c r="CI8" t="s">
@@ -4502,19 +4708,42 @@
       <c r="DA8" s="15"/>
       <c r="DB8" s="15"/>
       <c r="DC8" s="15"/>
-      <c r="DD8" s="16"/>
-      <c r="DE8" s="16"/>
-      <c r="DF8" s="15"/>
+      <c r="DD8" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE8" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF8" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG8" s="18"/>
       <c r="DH8" s="18"/>
       <c r="DI8" s="15"/>
       <c r="DJ8" s="15"/>
-      <c r="DK8" s="15"/>
+      <c r="DK8" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL8" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM8" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN8" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP8" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ8" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS8" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU8" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH8" s="19"/>
       <c r="EW8" s="16"/>
@@ -4696,6 +4925,9 @@
         <v>164</v>
       </c>
       <c r="BS9" s="16"/>
+      <c r="BT9" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU9" s="20"/>
       <c r="BV9">
         <v>9</v>
@@ -4731,6 +4963,9 @@
         <v>246</v>
       </c>
       <c r="CG9" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH9" t="s">
         <v>246</v>
       </c>
       <c r="CI9" t="s">
@@ -4759,19 +4994,42 @@
       <c r="DA9" s="15"/>
       <c r="DB9" s="15"/>
       <c r="DC9" s="15"/>
-      <c r="DD9" s="16"/>
-      <c r="DE9" s="16"/>
-      <c r="DF9" s="15"/>
+      <c r="DD9" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE9" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF9" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG9" s="18"/>
       <c r="DH9" s="18"/>
       <c r="DI9" s="15"/>
       <c r="DJ9" s="15"/>
-      <c r="DK9" s="15"/>
+      <c r="DK9" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL9" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM9" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN9" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP9" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ9" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS9" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU9" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH9" s="19"/>
       <c r="EW9" s="16"/>
@@ -4953,6 +5211,9 @@
         <v>164</v>
       </c>
       <c r="BS10" s="16"/>
+      <c r="BT10" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU10" s="20"/>
       <c r="BV10">
         <v>9</v>
@@ -4988,6 +5249,9 @@
         <v>246</v>
       </c>
       <c r="CG10" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH10" t="s">
         <v>246</v>
       </c>
       <c r="CI10" t="s">
@@ -5016,19 +5280,42 @@
       <c r="DA10" s="15"/>
       <c r="DB10" s="15"/>
       <c r="DC10" s="15"/>
-      <c r="DD10" s="16"/>
-      <c r="DE10" s="16"/>
-      <c r="DF10" s="15"/>
+      <c r="DD10" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE10" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF10" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG10" s="18"/>
       <c r="DH10" s="18"/>
       <c r="DI10" s="15"/>
       <c r="DJ10" s="15"/>
-      <c r="DK10" s="15"/>
+      <c r="DK10" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL10" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM10" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN10" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP10" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ10" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS10" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU10" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH10" s="19"/>
       <c r="EW10" s="16"/>
@@ -5210,6 +5497,9 @@
         <v>164</v>
       </c>
       <c r="BS11" s="16"/>
+      <c r="BT11" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU11" s="20"/>
       <c r="BV11">
         <v>8</v>
@@ -5245,6 +5535,9 @@
         <v>246</v>
       </c>
       <c r="CG11" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH11" t="s">
         <v>246</v>
       </c>
       <c r="CI11" t="s">
@@ -5273,19 +5566,42 @@
       <c r="DA11" s="15"/>
       <c r="DB11" s="15"/>
       <c r="DC11" s="15"/>
-      <c r="DD11" s="16"/>
-      <c r="DE11" s="16"/>
-      <c r="DF11" s="15"/>
+      <c r="DD11" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE11" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF11" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG11" s="18"/>
       <c r="DH11" s="18"/>
       <c r="DI11" s="15"/>
       <c r="DJ11" s="15"/>
-      <c r="DK11" s="15"/>
+      <c r="DK11" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL11" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM11" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN11" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP11" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ11" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS11" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU11" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH11" s="19"/>
       <c r="EW11" s="16"/>
@@ -5465,6 +5781,9 @@
         <v>164</v>
       </c>
       <c r="BS12" s="16"/>
+      <c r="BT12" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU12" s="20"/>
       <c r="BV12">
         <v>8</v>
@@ -5500,6 +5819,9 @@
         <v>246</v>
       </c>
       <c r="CG12" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH12" t="s">
         <v>246</v>
       </c>
       <c r="CI12" t="s">
@@ -5528,19 +5850,42 @@
       <c r="DA12" s="15"/>
       <c r="DB12" s="15"/>
       <c r="DC12" s="15"/>
-      <c r="DD12" s="16"/>
-      <c r="DE12" s="16"/>
-      <c r="DF12" s="15"/>
+      <c r="DD12" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE12" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF12" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG12" s="18"/>
       <c r="DH12" s="18"/>
       <c r="DI12" s="15"/>
       <c r="DJ12" s="15"/>
-      <c r="DK12" s="15"/>
+      <c r="DK12" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL12" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM12" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN12" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP12" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ12" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS12" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU12" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH12" s="19"/>
       <c r="EW12" s="16"/>
@@ -5720,6 +6065,9 @@
         <v>164</v>
       </c>
       <c r="BS13" s="16"/>
+      <c r="BT13" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU13" s="20"/>
       <c r="BV13">
         <v>8</v>
@@ -5755,6 +6103,9 @@
         <v>246</v>
       </c>
       <c r="CG13" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH13" t="s">
         <v>246</v>
       </c>
       <c r="CI13" t="s">
@@ -5783,19 +6134,42 @@
       <c r="DA13" s="15"/>
       <c r="DB13" s="15"/>
       <c r="DC13" s="15"/>
-      <c r="DD13" s="16"/>
-      <c r="DE13" s="16"/>
-      <c r="DF13" s="15"/>
+      <c r="DD13" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE13" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF13" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG13" s="18"/>
       <c r="DH13" s="18"/>
       <c r="DI13" s="15"/>
       <c r="DJ13" s="15"/>
-      <c r="DK13" s="15"/>
+      <c r="DK13" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL13" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM13" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN13" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP13" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ13" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS13" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU13" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH13" s="19"/>
       <c r="EW13" s="16"/>
@@ -5975,6 +6349,9 @@
         <v>164</v>
       </c>
       <c r="BS14" s="16"/>
+      <c r="BT14" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU14" s="20"/>
       <c r="BV14">
         <v>10</v>
@@ -6010,6 +6387,9 @@
         <v>343</v>
       </c>
       <c r="CG14" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH14" t="s">
         <v>343</v>
       </c>
       <c r="CI14" t="s">
@@ -6038,19 +6418,42 @@
       <c r="DA14" s="15"/>
       <c r="DB14" s="15"/>
       <c r="DC14" s="15"/>
-      <c r="DD14" s="16"/>
-      <c r="DE14" s="16"/>
-      <c r="DF14" s="15"/>
+      <c r="DD14" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE14" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF14" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG14" s="18"/>
       <c r="DH14" s="18"/>
       <c r="DI14" s="15"/>
       <c r="DJ14" s="15"/>
-      <c r="DK14" s="15"/>
+      <c r="DK14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL14" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM14" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN14" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP14" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ14" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS14" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU14" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH14" s="19"/>
       <c r="EW14" s="16"/>
@@ -6234,6 +6637,9 @@
         <v>164</v>
       </c>
       <c r="BS15" s="16"/>
+      <c r="BT15" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU15" s="20"/>
       <c r="BV15">
         <v>10</v>
@@ -6269,6 +6675,9 @@
         <v>343</v>
       </c>
       <c r="CG15" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH15" t="s">
         <v>343</v>
       </c>
       <c r="CI15" t="s">
@@ -6297,19 +6706,42 @@
       <c r="DA15" s="15"/>
       <c r="DB15" s="15"/>
       <c r="DC15" s="15"/>
-      <c r="DD15" s="16"/>
-      <c r="DE15" s="16"/>
-      <c r="DF15" s="15"/>
+      <c r="DD15" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE15" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF15" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG15" s="18"/>
       <c r="DH15" s="18"/>
       <c r="DI15" s="15"/>
       <c r="DJ15" s="15"/>
-      <c r="DK15" s="15"/>
+      <c r="DK15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL15" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM15" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN15" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP15" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ15" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS15" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU15" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH15" s="19"/>
       <c r="EW15" s="16"/>
@@ -6487,6 +6919,9 @@
         <v>164</v>
       </c>
       <c r="BS16" s="16"/>
+      <c r="BT16" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU16" s="20"/>
       <c r="BV16">
         <v>6</v>
@@ -6522,6 +6957,9 @@
         <v>343</v>
       </c>
       <c r="CG16" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH16" t="s">
         <v>343</v>
       </c>
       <c r="CI16" t="s">
@@ -6550,19 +6988,42 @@
       <c r="DA16" s="15"/>
       <c r="DB16" s="15"/>
       <c r="DC16" s="15"/>
-      <c r="DD16" s="16"/>
-      <c r="DE16" s="16"/>
-      <c r="DF16" s="15"/>
+      <c r="DD16" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE16" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF16" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG16" s="18"/>
       <c r="DH16" s="18"/>
       <c r="DI16" s="15"/>
       <c r="DJ16" s="15"/>
-      <c r="DK16" s="15"/>
+      <c r="DK16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL16" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM16" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN16" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP16" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ16" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS16" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU16" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH16" s="19"/>
       <c r="EW16" s="16"/>
@@ -6746,6 +7207,9 @@
         <v>164</v>
       </c>
       <c r="BS17" s="16"/>
+      <c r="BT17" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU17" s="20"/>
       <c r="BV17">
         <v>10</v>
@@ -6781,6 +7245,9 @@
         <v>343</v>
       </c>
       <c r="CG17" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH17" t="s">
         <v>343</v>
       </c>
       <c r="CI17" t="s">
@@ -6809,19 +7276,42 @@
       <c r="DA17" s="15"/>
       <c r="DB17" s="15"/>
       <c r="DC17" s="15"/>
-      <c r="DD17" s="16"/>
-      <c r="DE17" s="16"/>
-      <c r="DF17" s="15"/>
+      <c r="DD17" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE17" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF17" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG17" s="18"/>
       <c r="DH17" s="18"/>
       <c r="DI17" s="15"/>
       <c r="DJ17" s="15"/>
-      <c r="DK17" s="15"/>
+      <c r="DK17" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL17" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM17" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN17" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP17" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ17" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS17" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU17" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH17" s="19"/>
       <c r="EW17" s="16"/>
@@ -7001,6 +7491,9 @@
         <v>164</v>
       </c>
       <c r="BS18" s="16"/>
+      <c r="BT18" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU18" s="20"/>
       <c r="BV18">
         <v>10</v>
@@ -7036,6 +7529,9 @@
         <v>343</v>
       </c>
       <c r="CG18" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH18" t="s">
         <v>343</v>
       </c>
       <c r="CI18" t="s">
@@ -7064,19 +7560,42 @@
       <c r="DA18" s="15"/>
       <c r="DB18" s="15"/>
       <c r="DC18" s="15"/>
-      <c r="DD18" s="16"/>
-      <c r="DE18" s="16"/>
-      <c r="DF18" s="15"/>
+      <c r="DD18" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE18" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF18" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG18" s="18"/>
       <c r="DH18" s="18"/>
       <c r="DI18" s="15"/>
       <c r="DJ18" s="15"/>
-      <c r="DK18" s="15"/>
+      <c r="DK18" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL18" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM18" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN18" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP18" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ18" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS18" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU18" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH18" s="19"/>
       <c r="EW18" s="16"/>
@@ -7258,6 +7777,9 @@
         <v>164</v>
       </c>
       <c r="BS19" s="16"/>
+      <c r="BT19" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU19" s="20"/>
       <c r="BV19">
         <v>10</v>
@@ -7293,6 +7815,9 @@
         <v>343</v>
       </c>
       <c r="CG19" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH19" t="s">
         <v>343</v>
       </c>
       <c r="CI19" t="s">
@@ -7321,19 +7846,42 @@
       <c r="DA19" s="15"/>
       <c r="DB19" s="15"/>
       <c r="DC19" s="15"/>
-      <c r="DD19" s="16"/>
-      <c r="DE19" s="16"/>
-      <c r="DF19" s="15"/>
+      <c r="DD19" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE19" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF19" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG19" s="18"/>
       <c r="DH19" s="18"/>
       <c r="DI19" s="15"/>
       <c r="DJ19" s="15"/>
-      <c r="DK19" s="15"/>
+      <c r="DK19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL19" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM19" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN19" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP19" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ19" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS19" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU19" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH19" s="19"/>
       <c r="EW19" s="16"/>
@@ -7513,6 +8061,9 @@
         <v>164</v>
       </c>
       <c r="BS20" s="16"/>
+      <c r="BT20" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU20" s="20"/>
       <c r="BV20">
         <v>10</v>
@@ -7548,6 +8099,9 @@
         <v>343</v>
       </c>
       <c r="CG20" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH20" t="s">
         <v>343</v>
       </c>
       <c r="CI20" t="s">
@@ -7576,19 +8130,42 @@
       <c r="DA20" s="15"/>
       <c r="DB20" s="15"/>
       <c r="DC20" s="15"/>
-      <c r="DD20" s="16"/>
-      <c r="DE20" s="16"/>
-      <c r="DF20" s="15"/>
+      <c r="DD20" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE20" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF20" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG20" s="18"/>
       <c r="DH20" s="18"/>
       <c r="DI20" s="15"/>
       <c r="DJ20" s="15"/>
-      <c r="DK20" s="15"/>
+      <c r="DK20" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL20" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM20" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN20" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP20" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ20" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS20" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU20" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH20" s="19"/>
       <c r="EW20" s="16"/>
@@ -7768,6 +8345,9 @@
         <v>164</v>
       </c>
       <c r="BS21" s="16"/>
+      <c r="BT21" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU21" s="20"/>
       <c r="BV21">
         <v>9</v>
@@ -7803,6 +8383,9 @@
         <v>343</v>
       </c>
       <c r="CG21" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH21" t="s">
         <v>343</v>
       </c>
       <c r="CI21" t="s">
@@ -7831,19 +8414,42 @@
       <c r="DA21" s="15"/>
       <c r="DB21" s="15"/>
       <c r="DC21" s="15"/>
-      <c r="DD21" s="16"/>
-      <c r="DE21" s="16"/>
-      <c r="DF21" s="15"/>
+      <c r="DD21" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE21" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF21" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG21" s="18"/>
       <c r="DH21" s="18"/>
       <c r="DI21" s="15"/>
       <c r="DJ21" s="15"/>
-      <c r="DK21" s="15"/>
+      <c r="DK21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL21" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM21" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN21" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP21" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ21" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS21" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU21" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH21" s="19"/>
       <c r="EW21" s="16"/>
@@ -8021,6 +8627,9 @@
         <v>164</v>
       </c>
       <c r="BS22" s="16"/>
+      <c r="BT22" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU22" s="20"/>
       <c r="BV22">
         <v>10</v>
@@ -8056,6 +8665,9 @@
         <v>343</v>
       </c>
       <c r="CG22" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH22" t="s">
         <v>343</v>
       </c>
       <c r="CI22" t="s">
@@ -8084,19 +8696,42 @@
       <c r="DA22" s="15"/>
       <c r="DB22" s="15"/>
       <c r="DC22" s="15"/>
-      <c r="DD22" s="16"/>
-      <c r="DE22" s="16"/>
-      <c r="DF22" s="15"/>
+      <c r="DD22" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE22" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF22" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG22" s="18"/>
       <c r="DH22" s="18"/>
       <c r="DI22" s="15"/>
       <c r="DJ22" s="15"/>
-      <c r="DK22" s="15"/>
+      <c r="DK22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL22" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM22" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN22" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP22" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ22" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS22" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU22" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH22" s="19"/>
       <c r="EW22" s="16"/>
@@ -8280,6 +8915,9 @@
         <v>164</v>
       </c>
       <c r="BS23" s="16"/>
+      <c r="BT23" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU23" s="20"/>
       <c r="BV23">
         <v>9</v>
@@ -8315,6 +8953,9 @@
         <v>343</v>
       </c>
       <c r="CG23" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH23" t="s">
         <v>343</v>
       </c>
       <c r="CI23" t="s">
@@ -8343,19 +8984,42 @@
       <c r="DA23" s="15"/>
       <c r="DB23" s="15"/>
       <c r="DC23" s="15"/>
-      <c r="DD23" s="16"/>
-      <c r="DE23" s="16"/>
-      <c r="DF23" s="15"/>
+      <c r="DD23" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE23" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF23" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG23" s="18"/>
       <c r="DH23" s="18"/>
       <c r="DI23" s="15"/>
       <c r="DJ23" s="15"/>
-      <c r="DK23" s="15"/>
+      <c r="DK23" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL23" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM23" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN23" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP23" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ23" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS23" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU23" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH23" s="19"/>
       <c r="EW23" s="16"/>
@@ -8537,6 +9201,9 @@
         <v>164</v>
       </c>
       <c r="BS24" s="16"/>
+      <c r="BT24" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU24" s="20"/>
       <c r="BV24">
         <v>10</v>
@@ -8572,6 +9239,9 @@
         <v>343</v>
       </c>
       <c r="CG24" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH24" t="s">
         <v>343</v>
       </c>
       <c r="CI24" t="s">
@@ -8600,19 +9270,42 @@
       <c r="DA24" s="15"/>
       <c r="DB24" s="15"/>
       <c r="DC24" s="15"/>
-      <c r="DD24" s="16"/>
-      <c r="DE24" s="16"/>
-      <c r="DF24" s="15"/>
+      <c r="DD24" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE24" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF24" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG24" s="18"/>
       <c r="DH24" s="18"/>
       <c r="DI24" s="15"/>
       <c r="DJ24" s="15"/>
-      <c r="DK24" s="15"/>
+      <c r="DK24" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL24" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM24" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN24" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP24" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ24" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS24" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU24" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH24" s="19"/>
       <c r="EW24" s="16"/>
@@ -8795,6 +9488,9 @@
         <v>164</v>
       </c>
       <c r="BS25" s="22"/>
+      <c r="BT25" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU25" s="20"/>
       <c r="BV25">
         <v>10</v>
@@ -8830,6 +9526,9 @@
         <v>343</v>
       </c>
       <c r="CG25" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH25" t="s">
         <v>343</v>
       </c>
       <c r="CI25" t="s">
@@ -8858,19 +9557,42 @@
       <c r="DA25" s="15"/>
       <c r="DB25" s="15"/>
       <c r="DC25" s="15"/>
-      <c r="DD25" s="16"/>
-      <c r="DE25" s="16"/>
-      <c r="DF25" s="15"/>
+      <c r="DD25" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE25" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF25" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG25" s="18"/>
       <c r="DH25" s="18"/>
       <c r="DI25" s="15"/>
       <c r="DJ25" s="15"/>
-      <c r="DK25" s="15"/>
+      <c r="DK25" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL25" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM25" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN25" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP25" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ25" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS25" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU25" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH25" s="19"/>
       <c r="EW25" s="16"/>
@@ -9055,6 +9777,9 @@
       <c r="BS26" s="22">
         <v>42309</v>
       </c>
+      <c r="BT26" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="BU26" s="20"/>
       <c r="BV26">
         <v>11</v>
@@ -9090,6 +9815,9 @@
         <v>343</v>
       </c>
       <c r="CG26" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH26" t="s">
         <v>343</v>
       </c>
       <c r="CI26" t="s">
@@ -9118,19 +9846,42 @@
       <c r="DA26" s="15"/>
       <c r="DB26" s="15"/>
       <c r="DC26" s="15"/>
-      <c r="DD26" s="16"/>
-      <c r="DE26" s="16"/>
-      <c r="DF26" s="15"/>
+      <c r="DD26" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE26" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF26" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="DG26" s="18"/>
       <c r="DH26" s="18"/>
       <c r="DI26" s="15"/>
       <c r="DJ26" s="15"/>
-      <c r="DK26" s="15"/>
+      <c r="DK26" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL26" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="DM26" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN26" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP26" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ26" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DS26" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="DU26" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="EH26" s="19"/>
       <c r="EW26" s="16"/>
@@ -9305,6 +10056,9 @@
         <v>164</v>
       </c>
       <c r="BS27" s="22"/>
+      <c r="BT27" s="14" t="s">
+        <v>548</v>
+      </c>
       <c r="BU27" s="20"/>
       <c r="BV27">
         <v>7</v>
@@ -9340,6 +10094,9 @@
         <v>343</v>
       </c>
       <c r="CG27" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH27" t="s">
         <v>343</v>
       </c>
       <c r="CI27" t="s">
@@ -9368,19 +10125,42 @@
       <c r="DA27" s="15"/>
       <c r="DB27" s="15"/>
       <c r="DC27" s="15"/>
-      <c r="DD27" s="16"/>
-      <c r="DE27" s="16"/>
-      <c r="DF27" s="15"/>
+      <c r="DD27" s="22">
+        <v>42401</v>
+      </c>
+      <c r="DE27" s="22">
+        <v>42644</v>
+      </c>
+      <c r="DF27" s="26" t="s">
+        <v>544</v>
+      </c>
       <c r="DG27" s="18"/>
       <c r="DH27" s="18"/>
       <c r="DI27" s="15"/>
       <c r="DJ27" s="15"/>
-      <c r="DK27" s="15"/>
+      <c r="DK27" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL27" s="27" t="s">
+        <v>546</v>
+      </c>
       <c r="DM27" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN27" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP27" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DQ27" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DS27" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="DU27" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="EH27" s="19"/>
       <c r="EW27" s="16"/>
